--- a/optimize/Axiory/covid/MA10/NIKKEI/M5/matrix_NIKKEI_M5_MA10_2020_1.xlsx
+++ b/optimize/Axiory/covid/MA10/NIKKEI/M5/matrix_NIKKEI_M5_MA10_2020_1.xlsx
@@ -444,31 +444,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-334</v>
+        <v>-324</v>
       </c>
       <c r="C2">
-        <v>-5104</v>
+        <v>-5094</v>
       </c>
       <c r="D2">
-        <v>2396</v>
+        <v>2406</v>
       </c>
       <c r="E2">
-        <v>-1844</v>
+        <v>-1834</v>
       </c>
       <c r="F2">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="G2">
-        <v>-6538</v>
+        <v>-6528</v>
       </c>
       <c r="H2">
-        <v>-2244</v>
+        <v>-2234</v>
       </c>
       <c r="I2">
-        <v>-2224</v>
+        <v>-2214</v>
       </c>
       <c r="J2">
-        <v>-3100</v>
+        <v>-3090</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -476,31 +476,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-3050</v>
+        <v>-3040</v>
       </c>
       <c r="C3">
-        <v>-824</v>
+        <v>-814</v>
       </c>
       <c r="D3">
-        <v>6986</v>
+        <v>6996</v>
       </c>
       <c r="E3">
-        <v>-2466</v>
+        <v>-2456</v>
       </c>
       <c r="F3">
-        <v>-4500</v>
+        <v>-4490</v>
       </c>
       <c r="G3">
-        <v>-6364</v>
+        <v>-6354</v>
       </c>
       <c r="H3">
-        <v>-6140</v>
+        <v>-6130</v>
       </c>
       <c r="I3">
-        <v>-4972</v>
+        <v>-4962</v>
       </c>
       <c r="J3">
-        <v>-2712</v>
+        <v>-2702</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -508,31 +508,31 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>-1142</v>
+        <v>-1132</v>
       </c>
       <c r="C4">
-        <v>-800</v>
+        <v>-790</v>
       </c>
       <c r="D4">
-        <v>13578</v>
+        <v>13588</v>
       </c>
       <c r="E4">
-        <v>-654</v>
+        <v>-644</v>
       </c>
       <c r="F4">
-        <v>-2644</v>
+        <v>-2634</v>
       </c>
       <c r="G4">
-        <v>-9606</v>
+        <v>-9596</v>
       </c>
       <c r="H4">
-        <v>-3606</v>
+        <v>-3596</v>
       </c>
       <c r="I4">
-        <v>-5710</v>
+        <v>-5700</v>
       </c>
       <c r="J4">
-        <v>-4778</v>
+        <v>-4768</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -540,31 +540,31 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>-1364</v>
+        <v>-1354</v>
       </c>
       <c r="C5">
-        <v>-856</v>
+        <v>-846</v>
       </c>
       <c r="D5">
-        <v>6542</v>
+        <v>6552</v>
       </c>
       <c r="E5">
-        <v>-334</v>
+        <v>-324</v>
       </c>
       <c r="F5">
-        <v>-5998</v>
+        <v>-5988</v>
       </c>
       <c r="G5">
-        <v>-5476</v>
+        <v>-5466</v>
       </c>
       <c r="H5">
-        <v>-4044</v>
+        <v>-4034</v>
       </c>
       <c r="I5">
-        <v>-2658</v>
+        <v>-2648</v>
       </c>
       <c r="J5">
-        <v>-6024</v>
+        <v>-6014</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -572,31 +572,31 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>-4680</v>
+        <v>-4670</v>
       </c>
       <c r="C6">
-        <v>-448</v>
+        <v>-438</v>
       </c>
       <c r="D6">
-        <v>9694</v>
+        <v>9704</v>
       </c>
       <c r="E6">
-        <v>2204</v>
+        <v>2214</v>
       </c>
       <c r="F6">
-        <v>-5264</v>
+        <v>-5254</v>
       </c>
       <c r="G6">
-        <v>-2376</v>
+        <v>-2366</v>
       </c>
       <c r="H6">
-        <v>-6180</v>
+        <v>-6170</v>
       </c>
       <c r="I6">
-        <v>-3854</v>
+        <v>-3844</v>
       </c>
       <c r="J6">
-        <v>-5574</v>
+        <v>-5564</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -604,31 +604,31 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>-3208</v>
+        <v>-3198</v>
       </c>
       <c r="C7">
-        <v>-1916</v>
+        <v>-1906</v>
       </c>
       <c r="D7">
-        <v>17616</v>
+        <v>17626</v>
       </c>
       <c r="E7">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="F7">
-        <v>-7846</v>
+        <v>-7836</v>
       </c>
       <c r="G7">
-        <v>-2498</v>
+        <v>-2488</v>
       </c>
       <c r="H7">
-        <v>-3516</v>
+        <v>-3506</v>
       </c>
       <c r="I7">
-        <v>-3528</v>
+        <v>-3518</v>
       </c>
       <c r="J7">
-        <v>-1052</v>
+        <v>-1042</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -636,31 +636,31 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>-578</v>
+        <v>-568</v>
       </c>
       <c r="C8">
-        <v>4552</v>
+        <v>4562</v>
       </c>
       <c r="D8">
-        <v>13322</v>
+        <v>13332</v>
       </c>
       <c r="E8">
-        <v>2942</v>
+        <v>2952</v>
       </c>
       <c r="F8">
-        <v>-5268</v>
+        <v>-5258</v>
       </c>
       <c r="G8">
-        <v>-3612</v>
+        <v>-3602</v>
       </c>
       <c r="H8">
-        <v>-4520</v>
+        <v>-4510</v>
       </c>
       <c r="I8">
-        <v>-1782</v>
+        <v>-1772</v>
       </c>
       <c r="J8">
-        <v>-878</v>
+        <v>-868</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -668,31 +668,31 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>-204</v>
+        <v>-194</v>
       </c>
       <c r="C9">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D9">
-        <v>13640</v>
+        <v>13650</v>
       </c>
       <c r="E9">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F9">
-        <v>-2736</v>
+        <v>-2726</v>
       </c>
       <c r="G9">
-        <v>-3850</v>
+        <v>-3840</v>
       </c>
       <c r="H9">
-        <v>-5110</v>
+        <v>-5100</v>
       </c>
       <c r="I9">
-        <v>-1568</v>
+        <v>-1558</v>
       </c>
       <c r="J9">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -700,31 +700,31 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C10">
-        <v>-3174</v>
+        <v>-3164</v>
       </c>
       <c r="D10">
-        <v>13374</v>
+        <v>13384</v>
       </c>
       <c r="E10">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="F10">
-        <v>-1890</v>
+        <v>-1880</v>
       </c>
       <c r="G10">
-        <v>1578</v>
+        <v>1588</v>
       </c>
       <c r="H10">
-        <v>-1648</v>
+        <v>-1638</v>
       </c>
       <c r="I10">
-        <v>-2496</v>
+        <v>-2486</v>
       </c>
       <c r="J10">
-        <v>-134</v>
+        <v>-124</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -732,31 +732,31 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>-944</v>
+        <v>-934</v>
       </c>
       <c r="C11">
-        <v>-1952</v>
+        <v>-1942</v>
       </c>
       <c r="D11">
-        <v>13878</v>
+        <v>13888</v>
       </c>
       <c r="E11">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F11">
-        <v>-3706</v>
+        <v>-3696</v>
       </c>
       <c r="G11">
-        <v>1066</v>
+        <v>1076</v>
       </c>
       <c r="H11">
-        <v>-2046</v>
+        <v>-2036</v>
       </c>
       <c r="I11">
-        <v>-3200</v>
+        <v>-3190</v>
       </c>
       <c r="J11">
-        <v>-2760</v>
+        <v>-2750</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -764,31 +764,31 @@
         <v>55</v>
       </c>
       <c r="B12">
-        <v>1476</v>
+        <v>1486</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>13734</v>
+        <v>13744</v>
       </c>
       <c r="E12">
-        <v>1356</v>
+        <v>1366</v>
       </c>
       <c r="F12">
-        <v>-1656</v>
+        <v>-1646</v>
       </c>
       <c r="G12">
-        <v>2050</v>
+        <v>2060</v>
       </c>
       <c r="H12">
-        <v>-586</v>
+        <v>-576</v>
       </c>
       <c r="I12">
-        <v>-2194</v>
+        <v>-2184</v>
       </c>
       <c r="J12">
-        <v>-6512</v>
+        <v>-6502</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -796,31 +796,31 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>1226</v>
+        <v>1236</v>
       </c>
       <c r="C13">
-        <v>1304</v>
+        <v>1314</v>
       </c>
       <c r="D13">
-        <v>9414</v>
+        <v>9424</v>
       </c>
       <c r="E13">
-        <v>1528</v>
+        <v>1538</v>
       </c>
       <c r="F13">
-        <v>-144</v>
+        <v>-134</v>
       </c>
       <c r="G13">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="H13">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="I13">
-        <v>-3084</v>
+        <v>-3074</v>
       </c>
       <c r="J13">
-        <v>-6450</v>
+        <v>-6440</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -828,31 +828,31 @@
         <v>65</v>
       </c>
       <c r="B14">
-        <v>-284</v>
+        <v>-274</v>
       </c>
       <c r="C14">
-        <v>-4174</v>
+        <v>-4164</v>
       </c>
       <c r="D14">
-        <v>8422</v>
+        <v>8432</v>
       </c>
       <c r="E14">
-        <v>1196</v>
+        <v>1206</v>
       </c>
       <c r="F14">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G14">
-        <v>1302</v>
+        <v>1312</v>
       </c>
       <c r="H14">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="I14">
-        <v>-2658</v>
+        <v>-2648</v>
       </c>
       <c r="J14">
-        <v>-4950</v>
+        <v>-4940</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -860,31 +860,31 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <v>-1852</v>
+        <v>-1842</v>
       </c>
       <c r="C15">
-        <v>-2668</v>
+        <v>-2658</v>
       </c>
       <c r="D15">
-        <v>3360</v>
+        <v>3370</v>
       </c>
       <c r="E15">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F15">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="G15">
-        <v>1522</v>
+        <v>1532</v>
       </c>
       <c r="H15">
-        <v>2238</v>
+        <v>2248</v>
       </c>
       <c r="I15">
-        <v>-3522</v>
+        <v>-3512</v>
       </c>
       <c r="J15">
-        <v>-3724</v>
+        <v>-3714</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -892,31 +892,31 @@
         <v>75</v>
       </c>
       <c r="B16">
-        <v>1258</v>
+        <v>1268</v>
       </c>
       <c r="C16">
-        <v>-2742</v>
+        <v>-2732</v>
       </c>
       <c r="D16">
-        <v>2136</v>
+        <v>2146</v>
       </c>
       <c r="E16">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="F16">
-        <v>-74</v>
+        <v>-64</v>
       </c>
       <c r="G16">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="H16">
-        <v>1668</v>
+        <v>1678</v>
       </c>
       <c r="I16">
-        <v>-3778</v>
+        <v>-3768</v>
       </c>
       <c r="J16">
-        <v>-3136</v>
+        <v>-3126</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -924,31 +924,31 @@
         <v>80</v>
       </c>
       <c r="B17">
-        <v>-110</v>
+        <v>-100</v>
       </c>
       <c r="C17">
-        <v>-4856</v>
+        <v>-4846</v>
       </c>
       <c r="D17">
-        <v>3134</v>
+        <v>3144</v>
       </c>
       <c r="E17">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F17">
-        <v>-568</v>
+        <v>-558</v>
       </c>
       <c r="G17">
-        <v>-3614</v>
+        <v>-3604</v>
       </c>
       <c r="H17">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="I17">
-        <v>-1146</v>
+        <v>-1136</v>
       </c>
       <c r="J17">
-        <v>-652</v>
+        <v>-642</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -956,31 +956,31 @@
         <v>85</v>
       </c>
       <c r="B18">
-        <v>-1840</v>
+        <v>-1830</v>
       </c>
       <c r="C18">
-        <v>-4500</v>
+        <v>-4490</v>
       </c>
       <c r="D18">
-        <v>3178</v>
+        <v>3188</v>
       </c>
       <c r="E18">
-        <v>2512</v>
+        <v>2522</v>
       </c>
       <c r="F18">
-        <v>-826</v>
+        <v>-816</v>
       </c>
       <c r="G18">
-        <v>-5520</v>
+        <v>-5510</v>
       </c>
       <c r="H18">
-        <v>1218</v>
+        <v>1228</v>
       </c>
       <c r="I18">
-        <v>-1448</v>
+        <v>-1438</v>
       </c>
       <c r="J18">
-        <v>-854</v>
+        <v>-844</v>
       </c>
     </row>
   </sheetData>
